--- a/NFT_sales.xlsx
+++ b/NFT_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab4a38b7d5864bdc/Documents/github/ereboreum/important-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{9690C925-B0E4-4F00-A39E-83F358C66019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B22BF72E-0D3D-44FC-A553-0C4A2A18EDD1}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{9690C925-B0E4-4F00-A39E-83F358C66019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9365896-446D-4AE6-98FA-C881C83DD774}"/>
   <bookViews>
-    <workbookView xWindow="33390" yWindow="0" windowWidth="24330" windowHeight="15585" xr2:uid="{C3E8A63E-BE43-49BD-BD39-E91442661796}"/>
+    <workbookView xWindow="33270" yWindow="0" windowWidth="24330" windowHeight="15585" xr2:uid="{C3E8A63E-BE43-49BD-BD39-E91442661796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>asset</t>
   </si>
@@ -131,6 +131,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,11 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37205B3A-D9D8-4A25-9EA2-58B705041E87}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,14 +472,14 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <f>SUM(C3:C1048576)</f>
-        <v>30.530200000000001</v>
+        <v>34.5702</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1">
         <f>SUM(E3:E1048576)</f>
-        <v>0.59719999999999995</v>
+        <v>1.026</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -654,6 +658,12 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="1">
+        <v>0.128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -668,6 +678,9 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -682,47 +695,65 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>7126</v>
+        <v>45600</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.1232</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>8056</v>
+        <v>55996</v>
       </c>
       <c r="C14" s="1">
-        <v>0.81659999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>5232</v>
+        <v>7126</v>
       </c>
       <c r="C15" s="1">
-        <v>0.57499999999999996</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,41 +761,84 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>508</v>
+        <v>8056</v>
       </c>
       <c r="C16" s="1">
-        <v>0.8276</v>
+        <v>0.81659999999999999</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>4846</v>
+        <v>5232</v>
       </c>
       <c r="C17" s="1">
-        <v>0.59799999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18">
+        <v>508</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.8276</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>4846</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
         <v>3305</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <v>0.14499999999999999</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/NFT_sales.xlsx
+++ b/NFT_sales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab4a38b7d5864bdc/Documents/github/ereboreum/important-docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{9690C925-B0E4-4F00-A39E-83F358C66019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9365896-446D-4AE6-98FA-C881C83DD774}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{9690C925-B0E4-4F00-A39E-83F358C66019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{355F6AE4-D9C8-4097-B3CC-D4BA8B21E499}"/>
   <bookViews>
-    <workbookView xWindow="33270" yWindow="0" windowWidth="24330" windowHeight="15585" xr2:uid="{C3E8A63E-BE43-49BD-BD39-E91442661796}"/>
+    <workbookView xWindow="-30" yWindow="0" windowWidth="34830" windowHeight="15585" xr2:uid="{C3E8A63E-BE43-49BD-BD39-E91442661796}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>asset</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>AAPES</t>
+  </si>
+  <si>
+    <t>Humanoid</t>
+  </si>
+  <si>
+    <t>BBOSS</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>DAPE</t>
   </si>
 </sst>
 </file>
@@ -454,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37205B3A-D9D8-4A25-9EA2-58B705041E87}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,14 +484,14 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <f>SUM(C3:C1048576)</f>
-        <v>34.5702</v>
+        <v>37.756199999999993</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="1">
         <f>SUM(E3:E1048576)</f>
-        <v>1.026</v>
+        <v>1.3848999999999994</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -678,6 +690,9 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="E11" s="1">
+        <v>0.128</v>
+      </c>
       <c r="F11" t="s">
         <v>8</v>
       </c>
@@ -695,6 +710,9 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="1">
+        <v>0.1232</v>
+      </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
@@ -769,6 +787,9 @@
       <c r="D16" t="s">
         <v>7</v>
       </c>
+      <c r="E16" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
       <c r="F16" t="s">
         <v>8</v>
       </c>
@@ -786,6 +807,9 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
+      <c r="E17" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
       <c r="F17" t="s">
         <v>8</v>
       </c>
@@ -803,6 +827,9 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
+      <c r="E18" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
@@ -820,6 +847,9 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
+      <c r="E19" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
@@ -838,6 +868,146 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>3978</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>4878</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>4653</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>5919</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>3151</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1748</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>1174</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
